--- a/biology/Médecine/Françoise_Legey/Françoise_Legey.xlsx
+++ b/biology/Médecine/Françoise_Legey/Françoise_Legey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Legey</t>
+          <t>Françoise_Legey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise Legey ou Françoise Entz-Legey, appelée aussi Doctoresse Legey ou toubiba Legey (née Françoise Ursule Entz à Batna[1] en 1876 et décédée le 28 novembre 1935 au Maroc[2]), est une médecin franco-marocaine qui a consacré sa carrière en Algérie et au Maroc à la santé des femmes[3].
-Elle fait ses études de médecine à Paris[1] puis revient travailler à Alger comme médecin de l'Assistance publique. Elle y développe un service de consultation « dans un petit local de la Casbah et recevait des femmes et des enfants malades ainsi que des femmes en couches[4] ».
-Parlant couramment arabe[4], elle devient la première femme médecin à Marrakech, au Maroc, en 1909 après la mort du Dr Émile Mauchamp[1],[5]. Françoise Legey y crée une maternité[6] et forme des sages-femmes, ainsi qu'un dispensaire destinée à distribuer du lait stérilisé aux mères. Elle voit près de 60 000 femmes et enfants, chaque année dans le cadre de consultations médicales, tout en luttant pour la dignité des femmes arabes, l'abolition de l'esclavage et la transformation du système du harem[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise Legey ou Françoise Entz-Legey, appelée aussi Doctoresse Legey ou toubiba Legey (née Françoise Ursule Entz à Batna en 1876 et décédée le 28 novembre 1935 au Maroc), est une médecin franco-marocaine qui a consacré sa carrière en Algérie et au Maroc à la santé des femmes.
+Elle fait ses études de médecine à Paris puis revient travailler à Alger comme médecin de l'Assistance publique. Elle y développe un service de consultation « dans un petit local de la Casbah et recevait des femmes et des enfants malades ainsi que des femmes en couches ».
+Parlant couramment arabe, elle devient la première femme médecin à Marrakech, au Maroc, en 1909 après la mort du Dr Émile Mauchamp,. Françoise Legey y crée une maternité et forme des sages-femmes, ainsi qu'un dispensaire destinée à distribuer du lait stérilisé aux mères. Elle voit près de 60 000 femmes et enfants, chaque année dans le cadre de consultations médicales, tout en luttant pour la dignité des femmes arabes, l'abolition de l'esclavage et la transformation du système du harem,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Legey</t>
+          <t>Françoise_Legey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Legey, Françoise, et A. Décor. "L’assistance aux femmes en couches à la maternité indigène de Marrakech." Bulletin de l’Institut d’Hygiène du Maroc (1932): 48-61.
 Elle a aussi publié deux ouvrages sur le folklore marocain :
